--- a/我的/大集PC-标的购买.xlsx
+++ b/我的/大集PC-标的购买.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\desktop\我的\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -520,38 +515,6 @@
   </si>
   <si>
     <t>验证已投资份数字段</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.标的状态为未起售时，查看按钮
-2.标的状态为投资中时，查看按钮
-3.用户未登录时，点击确认购买
-4.用户已登录，未开通存管时，点击确认购买
-5.用户已登录已开通存管，账户冻结时，点击确认购买
-6.用户账户状态正常，余额不足时，点击确认购买
-7.用户账户正常，投资金额输入大于剩余可投金额，点击确认购买
-8.用户账户正常，投资金额小于限投金额，点击确认购买
-9.用户账户正常，投资金额大于限投金额，点击确认购买
-10.用户账户正常，投资份数不为整数时，点击确认购买
-11.用户账户正常，标的当前状态为已满标，已流标，超过募集时间时，点击购买
-12.用户账户正常，标的为定向标的时，非定向人点击购买
-13..用户账户正常，用户输入正常，点击购买</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.按钮置灰不可点击
-2.按钮为蓝色，可点击
-3.系统弹窗提示登录
-4.系统弹窗提示请开通存管
-5.系统提示用户被冻结，请联系管理员
-6.系统弹窗提示余额不足，请充值
-7.系统提示投资金额不能大于可投金额
-8.系统提示投资金额不能小于起投限额
-9.系统提示投资金额不能大于限投金额
-10.系统提示投资份数必须为整数
-11.系统提示无法购买
-12.系统提示定向标的，无法购买
-13.系统弹框显示支付页面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -756,12 +719,46 @@
 4.充值完成后自动跳转至充值前页面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>1.标的状态为未起售时，查看按钮
+2.标的状态为投资中时，查看按钮
+3.用户未登录时，点击确认购买
+4.用户已登录，未开通存管时，点击确认购买
+5.用户已登录已开通存管，账户冻结时，点击确认购买
+6.用户账户状态正常，余额不足时，点击确认购买
+7.用户账户正常，投资金额输入大于剩余可投金额，点击确认购买
+8.用户账户正常，投资金额小于限投金额，点击确认购买
+9.用户账户正常，投资金额大于限投金额，点击确认购买
+10.用户账户正常，投资份数不为整数时，点击确认购买
+11.用户账户正常，标的当前状态为已满标，已流标，超过募集时间时，点击购买
+12.用户账户正常，标的为定向标的时，非定向人点击购买
+13..用户账户正常，用户输入正常，点击购买
+14.选择自己为借款人的标的，点击立即购买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.按钮置灰不可点击
+2.按钮为蓝色，可点击
+3.系统弹窗提示登录
+4.系统弹窗提示请开通存管
+5.系统提示用户被冻结，请联系管理员
+6.系统弹窗提示余额不足，请充值
+7.系统提示投资金额不能大于可投金额
+8.系统提示投资金额不能小于起投限额
+9.系统提示投资金额不能大于限投金额
+10.系统提示投资份数必须为整数
+11.系统提示无法购买
+12.系统提示定向标的，无法购买
+13.系统弹框显示支付页面
+14.系统提示不能购买自己发布的标的</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1210,14 +1207,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="9" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="5" bestFit="1" customWidth="1"/>
@@ -1229,7 +1226,7 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="31.5">
       <c r="A2" s="13"/>
       <c r="B2" s="14" t="s">
         <v>26</v>
@@ -1273,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="78.75">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="8" t="s">
@@ -1289,7 +1286,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="31.5">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="8" t="s">
@@ -1305,7 +1302,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="31.5">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="8" t="s">
@@ -1321,7 +1318,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="47.25">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="8" t="s">
@@ -1337,7 +1334,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="63" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="63">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="8" t="s">
@@ -1353,7 +1350,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="63" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" ht="63">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="8" t="s">
@@ -1369,7 +1366,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="47.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="8" t="s">
@@ -1385,7 +1382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" ht="47.25">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="8" t="s">
@@ -1401,7 +1398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" ht="31.5">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="8" t="s">
@@ -1417,7 +1414,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" ht="31.5">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="8" t="s">
@@ -1433,7 +1430,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" ht="31.5">
       <c r="A13" s="13"/>
       <c r="B13" s="13"/>
       <c r="C13" s="8" t="s">
@@ -1449,7 +1446,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" ht="47.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="8" t="s">
@@ -1465,7 +1462,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="47.25">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
       <c r="C15" s="8" t="s">
@@ -1481,7 +1478,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" ht="47.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="8" t="s">
@@ -1497,7 +1494,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="31.5">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="8" t="s">
@@ -1513,7 +1510,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="78.75" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="78.75">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="8" t="s">
@@ -1529,7 +1526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" ht="31.5">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="8" t="s">
@@ -1545,7 +1542,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="157.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" ht="157.5">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="8" t="s">
@@ -1561,7 +1558,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="63" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="63">
       <c r="A21" s="13"/>
       <c r="B21" s="15"/>
       <c r="C21" s="8" t="s">
@@ -1577,7 +1574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:6" ht="94.5">
       <c r="A22" s="13"/>
       <c r="B22" s="14" t="s">
         <v>27</v>
@@ -1595,7 +1592,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:6" ht="63">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="8" t="s">
@@ -1611,7 +1608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="63" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:6" ht="63">
       <c r="A24" s="13"/>
       <c r="B24" s="15"/>
       <c r="C24" s="8" t="s">
@@ -1624,10 +1621,10 @@
         <v>83</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="31.5" x14ac:dyDescent="0.15">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="31.5">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
         <v>84</v>
@@ -1645,7 +1642,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="220.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:6" ht="220.5">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="8" t="s">
@@ -1661,7 +1658,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:6" ht="47.25">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="8" t="s">
@@ -1677,7 +1674,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:6" ht="47.25">
       <c r="A28" s="13"/>
       <c r="B28" s="13"/>
       <c r="C28" s="8" t="s">
@@ -1693,7 +1690,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="220.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:6" ht="236.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13"/>
       <c r="C29" s="8" t="s">
@@ -1702,14 +1699,14 @@
       <c r="D29" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="E29" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="94.5">
       <c r="B30" s="14" t="s">
         <v>88</v>
       </c>
@@ -1717,148 +1714,148 @@
         <v>71</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="B31" s="13"/>
       <c r="C31" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="B32" s="13"/>
       <c r="C32" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6">
       <c r="B33" s="13"/>
       <c r="C33" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" ht="31.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:6" ht="31.5">
       <c r="B34" s="13"/>
       <c r="C34" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" ht="157.5" x14ac:dyDescent="0.15">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" ht="157.5">
       <c r="B35" s="13"/>
       <c r="C35" s="11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" ht="94.5" x14ac:dyDescent="0.15">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" ht="94.5">
       <c r="B36" s="13"/>
       <c r="C36" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" ht="110.25" x14ac:dyDescent="0.15">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" ht="110.25">
       <c r="B37" s="13"/>
       <c r="C37" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" ht="157.5" x14ac:dyDescent="0.15">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" ht="157.5">
       <c r="B38" s="13"/>
       <c r="C38" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
       <c r="B39" s="15"/>
       <c r="C39" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D39" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="E39" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
